--- a/downloaded_files/MTHS104_Lecture-35073.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35073.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,15 +69,6 @@
     <x:t>Ahmed Tarek monir Yousef Elmenofy</x:t>
   </x:si>
   <x:si>
-    <x:t>1240012</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد احمد عبدالحميد ابراهيم المسيري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed Ahmed Abd Elhamid</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240014</x:t>
   </x:si>
   <x:si>
@@ -204,6 +195,15 @@
     <x:t>Aliah Mahmoud Mohamed Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1240230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن ثامر محمد الذهبي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman thamer mohamed elzahaby</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240093</x:t>
   </x:si>
   <x:si>
@@ -220,15 +220,6 @@
   </x:si>
   <x:si>
     <x:t>Omer Alaaeldin Mohammed Elhosary</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد صلاح الدين محمد عبد الحميد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>omar mohamed salaheldeen</x:t>
   </x:si>
   <x:si>
     <x:t>1230139</x:t>
@@ -479,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -789,7 +780,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.730625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="46.380625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -998,7 +989,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6655820602</x:v>
+        <x:v>45915.0210405093</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1030,7 +1021,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45915.0210405093</x:v>
+        <x:v>45915.021775544</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1062,7 +1053,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45915.021775544</x:v>
+        <x:v>45907.6657842245</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1094,7 +1085,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6657842245</x:v>
+        <x:v>45909.4625694792</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1126,7 +1117,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4625694792</x:v>
+        <x:v>45907.665140625</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1158,7 +1149,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.665140625</x:v>
+        <x:v>45907.665562419</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1190,7 +1181,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.665562419</x:v>
+        <x:v>45907.6658058218</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1222,7 +1213,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6658058218</x:v>
+        <x:v>45915.0202936343</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1254,7 +1245,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45915.0202936343</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1286,7 +1277,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6678741898</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1318,7 +1309,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6678741898</x:v>
+        <x:v>45909.4166743866</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1350,7 +1341,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4166743866</x:v>
+        <x:v>45909.4154623843</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1382,7 +1373,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4154623843</x:v>
+        <x:v>45909.4331547454</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1414,7 +1405,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4331547454</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1446,7 +1437,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45922.4207998032</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1542,7 +1533,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6653522801</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1574,7 +1565,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45907.4154093403</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1606,7 +1597,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4154093403</x:v>
+        <x:v>45907.6659028588</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1638,7 +1629,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6659028588</x:v>
+        <x:v>45907.6652133102</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1670,7 +1661,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6652133102</x:v>
+        <x:v>45907.6660107639</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1702,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6660107639</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1734,7 +1725,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45915.0250809375</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1766,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.0250809375</x:v>
+        <x:v>45915.0201534375</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1798,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45915.0201534375</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1830,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45907.6671960648</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1862,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6671960648</x:v>
+        <x:v>45907.665184456</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1894,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.665184456</x:v>
+        <x:v>45907.6654652431</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1926,7 +1917,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6654652431</x:v>
+        <x:v>45915.0211488079</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1958,7 +1949,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45915.0211488079</x:v>
+        <x:v>45907.6655123843</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1990,7 +1981,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6655123843</x:v>
+        <x:v>45915.0198090625</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2007,38 +1998,6 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45915.0198090625</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS104_Lecture-35073.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35073.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -75,7 +75,7 @@
     <x:t>احمد محمد عبدالله حسن عبدالله</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohamed Abdallah</x:t>
+    <x:t>Ahmed Mohammed Abdullah Hassan Abdullah</x:t>
   </x:si>
   <x:si>
     <x:t>1230159</x:t>
@@ -184,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Seif Ahmed Monir Mohamed Omar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عاصم على محمد ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assem Ali Mohamed Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1240079</x:t>
@@ -470,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +779,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1405,7 +1414,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45923.2896677083</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1437,7 +1446,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45922.4207998032</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1469,7 +1478,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45922.4207998032</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1501,7 +1510,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6651002662</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1533,7 +1542,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45907.6651002662</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1565,7 +1574,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4154093403</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1597,7 +1606,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6659028588</x:v>
+        <x:v>45907.4154093403</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1629,7 +1638,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6652133102</x:v>
+        <x:v>45907.6659028588</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1661,7 +1670,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6660107639</x:v>
+        <x:v>45907.6652133102</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,7 +1702,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.6660107639</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1725,7 +1734,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.0250809375</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1766,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.0201534375</x:v>
+        <x:v>45915.0250809375</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1798,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45915.0201534375</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1830,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6671960648</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1853,7 +1862,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.665184456</x:v>
+        <x:v>45907.6671960648</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1885,7 +1894,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6654652431</x:v>
+        <x:v>45907.665184456</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,7 +1926,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45915.0211488079</x:v>
+        <x:v>45907.6654652431</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,7 +1958,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6655123843</x:v>
+        <x:v>45915.0211488079</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1981,7 +1990,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45915.0198090625</x:v>
+        <x:v>45907.6655123843</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1998,6 +2007,38 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45915.0198090625</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS104_Lecture-35073.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35073.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -211,6 +211,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman thamer mohamed elzahaby</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240084</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن احمد محمد حسن محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AbdelRahman Ahmed Mohamed Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1240093</x:t>
@@ -479,7 +488,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +788,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1510,7 +1519,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45924.3715542014</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1542,7 +1551,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6651002662</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1574,7 +1583,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45907.6651002662</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1606,7 +1615,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4154093403</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1638,7 +1647,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6659028588</x:v>
+        <x:v>45907.4154093403</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1670,7 +1679,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6652133102</x:v>
+        <x:v>45907.6659028588</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1702,7 +1711,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6660107639</x:v>
+        <x:v>45907.6652133102</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1734,7 +1743,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.6660107639</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1766,7 +1775,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.0250809375</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1798,7 +1807,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45915.0201534375</x:v>
+        <x:v>45915.0250809375</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1830,7 +1839,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45915.0201534375</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1862,7 +1871,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6671960648</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1894,7 +1903,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.665184456</x:v>
+        <x:v>45907.6671960648</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1926,7 +1935,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6654652431</x:v>
+        <x:v>45907.665184456</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1958,7 +1967,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45915.0211488079</x:v>
+        <x:v>45907.6654652431</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1990,7 +1999,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6655123843</x:v>
+        <x:v>45915.0211488079</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2022,7 +2031,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45915.0198090625</x:v>
+        <x:v>45907.6655123843</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2039,6 +2048,38 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45915.0198090625</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS104_Lecture-35073.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35073.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -123,6 +123,15 @@
     <x:t>Gamal Korany Ragab Mahmoud</x:t>
   </x:si>
   <x:si>
+    <x:t>1210212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جنا محمد مصطفي علي محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jana Mohamed Mustafa Ali Mahmoud</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240294</x:t>
   </x:si>
   <x:si>
@@ -141,6 +150,15 @@
     <x:t>Hamza Mohamed Helmy Mohamed Morgan</x:t>
   </x:si>
   <x:si>
+    <x:t>4250172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>خالد وليد رمضان فكرى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khaled Walid Ramadan Fikry</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240063</x:t>
   </x:si>
   <x:si>
@@ -222,6 +240,15 @@
     <x:t>AbdelRahman Ahmed Mohamed Hassan</x:t>
   </x:si>
   <x:si>
+    <x:t>2240008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على الدين خالد على شاهين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali eldin</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240093</x:t>
   </x:si>
   <x:si>
@@ -240,6 +267,24 @@
     <x:t>Omer Alaaeldin Mohammed Elhosary</x:t>
   </x:si>
   <x:si>
+    <x:t>1170444</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فراس ماهر محمود احمد ابو فجور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Firas Maher Mahmoud Ahmed Abo Fogour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210374</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مؤمن ايهاب مصطفى السيد مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moamen Ihab Moustafa Elsayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230139</x:t>
   </x:si>
   <x:si>
@@ -364,6 +409,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Ayman Bakry Awaad Youssef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2200005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف جمال حلمى عبدالله سعد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Gamal Helmy</x:t>
   </x:si>
   <x:si>
     <x:t>1240279</x:t>
@@ -488,7 +542,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -788,7 +842,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T39"/>
+  <x:dimension ref="A1:T45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1199,7 +1253,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6658058218</x:v>
+        <x:v>45927.4175753125</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1231,7 +1285,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45915.0202936343</x:v>
+        <x:v>45907.6658058218</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1263,7 +1317,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45915.0202936343</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1295,7 +1349,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6678741898</x:v>
+        <x:v>45927.5337423958</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1327,7 +1381,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4166743866</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1359,7 +1413,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4154623843</x:v>
+        <x:v>45907.6678741898</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1391,7 +1445,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4331547454</x:v>
+        <x:v>45909.4166743866</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1423,7 +1477,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45923.2896677083</x:v>
+        <x:v>45909.4154623843</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1455,7 +1509,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45909.4331547454</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1487,7 +1541,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45922.4207998032</x:v>
+        <x:v>45923.2896677083</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1519,7 +1573,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45924.3715542014</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1551,7 +1605,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45922.4207998032</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1583,7 +1637,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6651002662</x:v>
+        <x:v>45924.3715542014</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1615,7 +1669,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45927.417258831</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1647,7 +1701,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4154093403</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1679,7 +1733,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6659028588</x:v>
+        <x:v>45907.6651002662</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1711,7 +1765,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6652133102</x:v>
+        <x:v>45927.6010665509</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1743,7 +1797,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6660107639</x:v>
+        <x:v>45927.4629790509</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1775,7 +1829,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1807,7 +1861,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45915.0250809375</x:v>
+        <x:v>45907.4154093403</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1839,7 +1893,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45915.0201534375</x:v>
+        <x:v>45907.6659028588</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1871,7 +1925,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45907.6652133102</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1903,7 +1957,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6671960648</x:v>
+        <x:v>45907.6660107639</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1935,7 +1989,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.665184456</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1967,7 +2021,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6654652431</x:v>
+        <x:v>45915.0250809375</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1999,7 +2053,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45915.0211488079</x:v>
+        <x:v>45915.0201534375</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2031,7 +2085,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6655123843</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2063,7 +2117,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45915.0198090625</x:v>
+        <x:v>45907.6671960648</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2080,6 +2134,198 @@
       <x:c r="R39" s="2" t="s"/>
       <x:c r="S39" s="2" t="s"/>
       <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45907.665184456</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45907.6654652431</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45915.0211488079</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45907.6655123843</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45927.4201510764</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45915.0198090625</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS104_Lecture-35073.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35073.xlsx
@@ -150,15 +150,6 @@
     <x:t>Hamza Mohamed Helmy Mohamed Morgan</x:t>
   </x:si>
   <x:si>
-    <x:t>4250172</x:t>
-  </x:si>
-  <x:si>
-    <x:t>خالد وليد رمضان فكرى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Khaled Walid Ramadan Fikry</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240063</x:t>
   </x:si>
   <x:si>
@@ -256,6 +247,15 @@
   </x:si>
   <x:si>
     <x:t>ALI MOHAMED HABASHY TAWFIQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220308</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمد ناجى محمود حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali mohamed nagy mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1240341</x:t>
@@ -1349,7 +1349,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.5337423958</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1381,7 +1381,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6678741898</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1413,7 +1413,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6678741898</x:v>
+        <x:v>45909.4166743866</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1445,7 +1445,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4166743866</x:v>
+        <x:v>45909.4154623843</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1477,7 +1477,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4154623843</x:v>
+        <x:v>45909.4331547454</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1509,7 +1509,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4331547454</x:v>
+        <x:v>45923.2896677083</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1541,7 +1541,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45923.2896677083</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1573,7 +1573,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45927.8436123843</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1605,7 +1605,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45922.4207998032</x:v>
+        <x:v>45924.3715542014</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1637,7 +1637,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45924.3715542014</x:v>
+        <x:v>45927.417258831</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1669,7 +1669,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.417258831</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1701,7 +1701,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45927.6587404282</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>

--- a/downloaded_files/MTHS104_Lecture-35073.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35073.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -256,6 +256,15 @@
   </x:si>
   <x:si>
     <x:t>Ali mohamed nagy mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1125371</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر احمد حامد امين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ahmed Hamed Amin</x:t>
   </x:si>
   <x:si>
     <x:t>1240341</x:t>
@@ -542,7 +551,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -842,7 +851,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1733,7 +1742,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6651002662</x:v>
+        <x:v>45928.4486361458</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1765,7 +1774,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.6010665509</x:v>
+        <x:v>45907.6651002662</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1797,7 +1806,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.4629790509</x:v>
+        <x:v>45927.6010665509</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1829,7 +1838,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45927.4629790509</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1861,7 +1870,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4154093403</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1893,7 +1902,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6659028588</x:v>
+        <x:v>45907.4154093403</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1925,7 +1934,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6652133102</x:v>
+        <x:v>45907.6659028588</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1957,7 +1966,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6660107639</x:v>
+        <x:v>45907.6652133102</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1989,7 +1998,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.6660107639</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2021,7 +2030,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45915.0250809375</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2053,7 +2062,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45915.0201534375</x:v>
+        <x:v>45915.0250809375</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2085,7 +2094,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45915.0201534375</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2117,7 +2126,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6671960648</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2149,7 +2158,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.665184456</x:v>
+        <x:v>45907.6671960648</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2181,7 +2190,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6654652431</x:v>
+        <x:v>45907.665184456</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2213,7 +2222,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45915.0211488079</x:v>
+        <x:v>45907.6654652431</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2245,7 +2254,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6655123843</x:v>
+        <x:v>45915.0211488079</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2277,7 +2286,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45927.4201510764</x:v>
+        <x:v>45907.6655123843</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2309,7 +2318,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45915.0198090625</x:v>
+        <x:v>45927.4201510764</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2326,6 +2335,38 @@
       <x:c r="R45" s="2" t="s"/>
       <x:c r="S45" s="2" t="s"/>
       <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45915.0198090625</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
